--- a/techniqo/data_new_ticker/DCAL.xlsx
+++ b/techniqo/data_new_ticker/DCAL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G734"/>
+  <dimension ref="A1:G736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26076,6 +26076,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>174.8</v>
+      </c>
+      <c r="C735" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="D735" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="E735" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="F735" t="n">
+        <v>373438</v>
+      </c>
+      <c r="G735" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="C736" t="n">
+        <v>183.65</v>
+      </c>
+      <c r="D736" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="E736" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="F736" t="n">
+        <v>751726</v>
+      </c>
+      <c r="G736" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/DCAL.xlsx
+++ b/techniqo/data_new_ticker/DCAL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G736"/>
+  <dimension ref="A1:G738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26126,6 +26126,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>175</v>
+      </c>
+      <c r="C737" t="n">
+        <v>177.75</v>
+      </c>
+      <c r="D737" t="n">
+        <v>168.75</v>
+      </c>
+      <c r="E737" t="n">
+        <v>170.1</v>
+      </c>
+      <c r="F737" t="n">
+        <v>252587</v>
+      </c>
+      <c r="G737" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>172</v>
+      </c>
+      <c r="C738" t="n">
+        <v>178.6</v>
+      </c>
+      <c r="D738" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="E738" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="F738" t="n">
+        <v>882823</v>
+      </c>
+      <c r="G738" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
